--- a/horarios_optimizados-817-push_gap_0.80.xlsx
+++ b/horarios_optimizados-817-push_gap_0.80.xlsx
@@ -613,18 +613,66 @@
       <c r="D5" s="4" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr"/>
       <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
-      <c r="J5" s="4" t="inlineStr"/>
-      <c r="K5" s="4" t="inlineStr"/>
-      <c r="L5" s="4" t="inlineStr"/>
-      <c r="M5" s="4" t="inlineStr"/>
-      <c r="N5" s="4" t="inlineStr"/>
-      <c r="O5" s="4" t="inlineStr"/>
-      <c r="P5" s="4" t="inlineStr"/>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S5" s="4" t="inlineStr"/>
       <c r="T5" s="4" t="inlineStr"/>
       <c r="U5" s="4" t="inlineStr"/>
@@ -640,21 +688,9 @@
       </c>
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -670,10 +706,22 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr"/>
-      <c r="K6" s="4" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -717,75 +765,23 @@
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr"/>
+      <c r="H7" s="4" t="inlineStr"/>
+      <c r="I7" s="4" t="inlineStr"/>
       <c r="J7" s="4" t="inlineStr"/>
       <c r="K7" s="4" t="inlineStr"/>
       <c r="L7" s="4" t="inlineStr"/>
       <c r="M7" s="4" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N7" s="4" t="inlineStr"/>
+      <c r="O7" s="4" t="inlineStr"/>
+      <c r="P7" s="4" t="inlineStr"/>
+      <c r="Q7" s="4" t="inlineStr"/>
+      <c r="R7" s="4" t="inlineStr"/>
+      <c r="S7" s="4" t="inlineStr"/>
       <c r="T7" s="4" t="inlineStr"/>
       <c r="U7" s="4" t="inlineStr"/>
       <c r="V7" s="4" t="inlineStr"/>
@@ -799,26 +795,30 @@
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr"/>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr"/>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G8" s="4" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H8" s="4" t="inlineStr"/>
+      <c r="I8" s="4" t="inlineStr"/>
+      <c r="J8" s="4" t="inlineStr"/>
       <c r="K8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -834,7 +834,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N8" s="4" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -891,37 +895,45 @@
       <c r="B9" s="4" t="inlineStr"/>
       <c r="C9" s="4" t="inlineStr"/>
       <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr"/>
-      <c r="G9" s="4" t="inlineStr"/>
-      <c r="H9" s="4" t="inlineStr"/>
-      <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr"/>
+      <c r="K9" s="4" t="inlineStr"/>
+      <c r="L9" s="4" t="inlineStr"/>
+      <c r="M9" s="4" t="inlineStr"/>
       <c r="N9" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O9" s="4" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -970,16 +982,8 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B10" s="4" t="inlineStr"/>
+      <c r="C10" s="4" t="inlineStr"/>
       <c r="D10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -995,15 +999,19 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr"/>
-      <c r="H10" s="4" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I10" s="4" t="inlineStr"/>
       <c r="J10" s="4" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K10" s="4" t="inlineStr"/>
       <c r="L10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1064,7 +1072,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X10" s="4" t="inlineStr"/>
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1093,25 +1105,25 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G11" s="4" t="inlineStr"/>
+      <c r="H11" s="4" t="inlineStr"/>
+      <c r="I11" s="4" t="inlineStr"/>
       <c r="J11" s="4" t="inlineStr"/>
-      <c r="K11" s="4" t="inlineStr"/>
-      <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="4" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1147,21 +1159,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U11" s="4" t="inlineStr"/>
+      <c r="V11" s="4" t="inlineStr"/>
+      <c r="W11" s="4" t="inlineStr"/>
       <c r="X11" s="4" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1254,40 +1254,32 @@
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr"/>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H15" s="4" t="inlineStr"/>
-      <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr"/>
-      <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="inlineStr"/>
       <c r="M15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1356,10 +1348,26 @@
       <c r="D16" s="4" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr"/>
       <c r="F16" s="4" t="inlineStr"/>
-      <c r="G16" s="4" t="inlineStr"/>
-      <c r="H16" s="4" t="inlineStr"/>
-      <c r="I16" s="4" t="inlineStr"/>
-      <c r="J16" s="4" t="inlineStr"/>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1390,12 +1398,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R16" s="4" t="inlineStr"/>
+      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="R16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1411,16 +1419,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V16" s="4" t="inlineStr"/>
+      <c r="W16" s="4" t="inlineStr"/>
       <c r="X16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1435,7 +1435,11 @@
       <c r="E17" s="4" t="inlineStr"/>
       <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" s="4" t="inlineStr"/>
-      <c r="H17" s="4" t="inlineStr"/>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1456,11 +1460,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M17" s="4" t="inlineStr"/>
       <c r="N17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1481,7 +1481,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr"/>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1521,22 +1525,82 @@
       <c r="E18" s="4" t="inlineStr"/>
       <c r="F18" s="4" t="inlineStr"/>
       <c r="G18" s="4" t="inlineStr"/>
-      <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="4" t="inlineStr"/>
-      <c r="J18" s="4" t="inlineStr"/>
-      <c r="K18" s="4" t="inlineStr"/>
-      <c r="L18" s="4" t="inlineStr"/>
-      <c r="M18" s="4" t="inlineStr"/>
-      <c r="N18" s="4" t="inlineStr"/>
-      <c r="O18" s="4" t="inlineStr"/>
-      <c r="P18" s="4" t="inlineStr"/>
-      <c r="Q18" s="4" t="inlineStr"/>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R18" s="4" t="inlineStr"/>
-      <c r="S18" s="4" t="inlineStr"/>
-      <c r="T18" s="4" t="inlineStr"/>
-      <c r="U18" s="4" t="inlineStr"/>
-      <c r="V18" s="4" t="inlineStr"/>
-      <c r="W18" s="4" t="inlineStr"/>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1548,28 +1612,20 @@
       <c r="B19" s="4" t="inlineStr"/>
       <c r="C19" s="4" t="inlineStr"/>
       <c r="D19" s="4" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I19" s="4" t="inlineStr"/>
-      <c r="J19" s="4" t="inlineStr"/>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr"/>
+      <c r="H19" s="4" t="inlineStr"/>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1600,11 +1656,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q19" s="4" t="inlineStr"/>
       <c r="R19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1620,9 +1672,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U19" s="4" t="inlineStr"/>
-      <c r="V19" s="4" t="inlineStr"/>
-      <c r="W19" s="4" t="inlineStr"/>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1634,8 +1698,16 @@
       <c r="B20" s="4" t="inlineStr"/>
       <c r="C20" s="4" t="inlineStr"/>
       <c r="D20" s="4" t="inlineStr"/>
-      <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1651,26 +1723,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr"/>
+      <c r="L20" s="4" t="inlineStr"/>
+      <c r="M20" s="4" t="inlineStr"/>
       <c r="N20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1686,7 +1742,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q20" s="4" t="inlineStr"/>
+      <c r="Q20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1717,11 +1777,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="X20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1733,77 +1789,21 @@
       <c r="C21" s="4" t="inlineStr"/>
       <c r="D21" s="4" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr"/>
+      <c r="I21" s="4" t="inlineStr"/>
       <c r="J21" s="4" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K21" s="4" t="inlineStr"/>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr"/>
+      <c r="P21" s="4" t="inlineStr"/>
+      <c r="Q21" s="4" t="inlineStr"/>
+      <c r="R21" s="4" t="inlineStr"/>
+      <c r="S21" s="4" t="inlineStr"/>
+      <c r="T21" s="4" t="inlineStr"/>
       <c r="U21" s="4" t="inlineStr"/>
       <c r="V21" s="4" t="inlineStr"/>
       <c r="W21" s="4" t="inlineStr"/>
@@ -1899,7 +1899,11 @@
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr"/>
-      <c r="C25" s="4" t="inlineStr"/>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1915,12 +1919,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1961,21 +1965,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q25" s="4" t="inlineStr"/>
+      <c r="R25" s="4" t="inlineStr"/>
+      <c r="S25" s="4" t="inlineStr"/>
       <c r="T25" s="4" t="inlineStr"/>
       <c r="U25" s="4" t="inlineStr"/>
       <c r="V25" s="4" t="inlineStr"/>
@@ -1990,80 +1982,24 @@
       </c>
       <c r="B26" s="4" t="inlineStr"/>
       <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="D26" s="4" t="inlineStr"/>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
+      <c r="G26" s="4" t="inlineStr"/>
       <c r="H26" s="4" t="inlineStr"/>
       <c r="I26" s="4" t="inlineStr"/>
       <c r="J26" s="4" t="inlineStr"/>
       <c r="K26" s="4" t="inlineStr"/>
-      <c r="L26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L26" s="4" t="inlineStr"/>
+      <c r="M26" s="4" t="inlineStr"/>
+      <c r="N26" s="4" t="inlineStr"/>
+      <c r="O26" s="4" t="inlineStr"/>
+      <c r="P26" s="4" t="inlineStr"/>
+      <c r="Q26" s="4" t="inlineStr"/>
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr"/>
+      <c r="T26" s="4" t="inlineStr"/>
+      <c r="U26" s="4" t="inlineStr"/>
       <c r="V26" s="4" t="inlineStr"/>
       <c r="W26" s="4" t="inlineStr"/>
       <c r="X26" s="4" t="inlineStr"/>
@@ -2075,27 +2011,95 @@
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr"/>
-      <c r="C27" s="4" t="inlineStr"/>
-      <c r="D27" s="4" t="inlineStr"/>
-      <c r="E27" s="4" t="inlineStr"/>
-      <c r="F27" s="4" t="inlineStr"/>
-      <c r="G27" s="4" t="inlineStr"/>
-      <c r="H27" s="4" t="inlineStr"/>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I27" s="4" t="inlineStr"/>
       <c r="J27" s="4" t="inlineStr"/>
       <c r="K27" s="4" t="inlineStr"/>
       <c r="L27" s="4" t="inlineStr"/>
-      <c r="M27" s="4" t="inlineStr"/>
-      <c r="N27" s="4" t="inlineStr"/>
-      <c r="O27" s="4" t="inlineStr"/>
-      <c r="P27" s="4" t="inlineStr"/>
-      <c r="Q27" s="4" t="inlineStr"/>
-      <c r="R27" s="4" t="inlineStr"/>
-      <c r="S27" s="4" t="inlineStr"/>
-      <c r="T27" s="4" t="inlineStr"/>
-      <c r="U27" s="4" t="inlineStr"/>
-      <c r="V27" s="4" t="inlineStr"/>
-      <c r="W27" s="4" t="inlineStr"/>
+      <c r="M27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2105,16 +2109,8 @@
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr"/>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C28" s="4" t="inlineStr"/>
+      <c r="D28" s="4" t="inlineStr"/>
       <c r="E28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2125,7 +2121,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr"/>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2136,16 +2136,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J28" s="4" t="inlineStr"/>
+      <c r="K28" s="4" t="inlineStr"/>
       <c r="L28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2186,11 +2178,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T28" s="4" t="inlineStr"/>
       <c r="U28" s="4" t="inlineStr"/>
       <c r="V28" s="4" t="inlineStr"/>
       <c r="W28" s="4" t="inlineStr"/>
@@ -2203,35 +2191,31 @@
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr"/>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H29" s="4" t="inlineStr"/>
-      <c r="I29" s="4" t="inlineStr"/>
-      <c r="J29" s="4" t="inlineStr"/>
-      <c r="K29" s="4" t="inlineStr"/>
+      <c r="C29" s="4" t="inlineStr"/>
+      <c r="D29" s="4" t="inlineStr"/>
+      <c r="E29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr"/>
+      <c r="G29" s="4" t="inlineStr"/>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2252,11 +2236,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P29" s="4" t="inlineStr"/>
       <c r="Q29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2288,9 +2268,21 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr"/>
-      <c r="C30" s="4" t="inlineStr"/>
-      <c r="D30" s="4" t="inlineStr"/>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2306,11 +2298,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H30" s="4" t="inlineStr"/>
       <c r="I30" s="4" t="inlineStr"/>
       <c r="J30" s="5" t="inlineStr">
         <is>
@@ -2383,9 +2371,21 @@
       <c r="D31" s="4" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr"/>
       <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="4" t="inlineStr"/>
-      <c r="H31" s="4" t="inlineStr"/>
-      <c r="I31" s="4" t="inlineStr"/>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2546,16 +2546,8 @@
       <c r="B35" s="4" t="inlineStr"/>
       <c r="C35" s="4" t="inlineStr"/>
       <c r="D35" s="4" t="inlineStr"/>
-      <c r="E35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
       <c r="G35" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2571,15 +2563,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr"/>
-      <c r="K35" s="4" t="inlineStr"/>
-      <c r="L35" s="4" t="inlineStr"/>
-      <c r="M35" s="4" t="inlineStr"/>
-      <c r="N35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N35" s="4" t="inlineStr"/>
       <c r="O35" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2654,14 +2658,14 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr"/>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H36" s="4" t="inlineStr"/>
       <c r="I36" s="4" t="inlineStr"/>
-      <c r="J36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J36" s="4" t="inlineStr"/>
       <c r="K36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2697,12 +2701,36 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R36" s="4" t="inlineStr"/>
-      <c r="S36" s="4" t="inlineStr"/>
-      <c r="T36" s="4" t="inlineStr"/>
-      <c r="U36" s="4" t="inlineStr"/>
-      <c r="V36" s="4" t="inlineStr"/>
-      <c r="W36" s="4" t="inlineStr"/>
+      <c r="R36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2718,77 +2746,21 @@
       <c r="F37" s="4" t="inlineStr"/>
       <c r="G37" s="4" t="inlineStr"/>
       <c r="H37" s="4" t="inlineStr"/>
-      <c r="I37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I37" s="4" t="inlineStr"/>
+      <c r="J37" s="4" t="inlineStr"/>
+      <c r="K37" s="4" t="inlineStr"/>
+      <c r="L37" s="4" t="inlineStr"/>
       <c r="M37" s="4" t="inlineStr"/>
-      <c r="N37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N37" s="4" t="inlineStr"/>
+      <c r="O37" s="4" t="inlineStr"/>
+      <c r="P37" s="4" t="inlineStr"/>
+      <c r="Q37" s="4" t="inlineStr"/>
+      <c r="R37" s="4" t="inlineStr"/>
+      <c r="S37" s="4" t="inlineStr"/>
+      <c r="T37" s="4" t="inlineStr"/>
+      <c r="U37" s="4" t="inlineStr"/>
+      <c r="V37" s="4" t="inlineStr"/>
+      <c r="W37" s="4" t="inlineStr"/>
       <c r="X37" s="4" t="inlineStr"/>
     </row>
     <row r="38">
@@ -2799,9 +2771,21 @@
       </c>
       <c r="B38" s="4" t="inlineStr"/>
       <c r="C38" s="4" t="inlineStr"/>
-      <c r="D38" s="4" t="inlineStr"/>
-      <c r="E38" s="4" t="inlineStr"/>
-      <c r="F38" s="4" t="inlineStr"/>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G38" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2817,22 +2801,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J38" s="4" t="inlineStr"/>
       <c r="K38" s="4" t="inlineStr"/>
-      <c r="L38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L38" s="4" t="inlineStr"/>
+      <c r="M38" s="4" t="inlineStr"/>
       <c r="N38" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2863,26 +2835,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T38" s="4" t="inlineStr"/>
+      <c r="U38" s="4" t="inlineStr"/>
+      <c r="V38" s="4" t="inlineStr"/>
+      <c r="W38" s="4" t="inlineStr"/>
       <c r="X38" s="4" t="inlineStr"/>
     </row>
     <row r="39">
@@ -2892,37 +2848,45 @@
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr"/>
-      <c r="C39" s="4" t="inlineStr"/>
-      <c r="D39" s="4" t="inlineStr"/>
-      <c r="E39" s="4" t="inlineStr"/>
-      <c r="F39" s="4" t="inlineStr"/>
-      <c r="G39" s="4" t="inlineStr"/>
-      <c r="H39" s="4" t="inlineStr"/>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I39" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J39" s="4" t="inlineStr"/>
+      <c r="K39" s="4" t="inlineStr"/>
+      <c r="L39" s="4" t="inlineStr"/>
+      <c r="M39" s="4" t="inlineStr"/>
       <c r="N39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2938,7 +2902,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q39" s="4" t="inlineStr"/>
+      <c r="Q39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2949,26 +2917,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T39" s="4" t="inlineStr"/>
+      <c r="U39" s="4" t="inlineStr"/>
+      <c r="V39" s="4" t="inlineStr"/>
+      <c r="W39" s="4" t="inlineStr"/>
       <c r="X39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
@@ -2979,45 +2931,37 @@
       </c>
       <c r="B40" s="4" t="inlineStr"/>
       <c r="C40" s="4" t="inlineStr"/>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="D40" s="4" t="inlineStr"/>
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr"/>
+      <c r="H40" s="4" t="inlineStr"/>
       <c r="I40" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr"/>
-      <c r="K40" s="4" t="inlineStr"/>
-      <c r="L40" s="4" t="inlineStr"/>
-      <c r="M40" s="4" t="inlineStr"/>
-      <c r="N40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N40" s="4" t="inlineStr"/>
       <c r="O40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3079,24 +3023,80 @@
       <c r="C41" s="4" t="inlineStr"/>
       <c r="D41" s="4" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr"/>
-      <c r="F41" s="4" t="inlineStr"/>
-      <c r="G41" s="4" t="inlineStr"/>
-      <c r="H41" s="4" t="inlineStr"/>
-      <c r="I41" s="4" t="inlineStr"/>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J41" s="4" t="inlineStr"/>
       <c r="K41" s="4" t="inlineStr"/>
       <c r="L41" s="4" t="inlineStr"/>
       <c r="M41" s="4" t="inlineStr"/>
-      <c r="N41" s="4" t="inlineStr"/>
-      <c r="O41" s="4" t="inlineStr"/>
-      <c r="P41" s="4" t="inlineStr"/>
-      <c r="Q41" s="4" t="inlineStr"/>
-      <c r="R41" s="4" t="inlineStr"/>
-      <c r="S41" s="4" t="inlineStr"/>
-      <c r="T41" s="4" t="inlineStr"/>
-      <c r="U41" s="4" t="inlineStr"/>
-      <c r="V41" s="4" t="inlineStr"/>
-      <c r="W41" s="4" t="inlineStr"/>
+      <c r="N41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X41" s="4" t="inlineStr"/>
     </row>
     <row r="43">
@@ -3495,18 +3495,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Descanso</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3526,17 +3528,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -3548,7 +3550,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -3569,29 +3571,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3612,17 +3602,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3631,10 +3621,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3655,17 +3645,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3674,10 +3664,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3698,29 +3688,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -3746,21 +3736,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
@@ -3784,17 +3774,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3803,10 +3793,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -3827,26 +3817,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
         <v>0.5</v>
@@ -3870,17 +3860,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3889,7 +3879,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I11" t="n">
         <v>0.5</v>
@@ -3913,17 +3903,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -3944,29 +3946,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -3987,29 +3989,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -4030,29 +4032,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4073,26 +4063,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>12:30</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I16" t="n">
         <v>0.5</v>
@@ -4116,29 +4106,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4159,17 +4137,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -4190,29 +4180,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -4233,17 +4223,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4252,10 +4242,10 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -4276,12 +4266,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4295,10 +4285,10 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -4319,7 +4309,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4338,7 +4328,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="I22" t="n">
         <v>0.5</v>
@@ -4362,17 +4352,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4381,10 +4371,10 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
@@ -4410,21 +4400,21 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I24" t="n">
         <v>1.5</v>
@@ -4448,29 +4438,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4491,29 +4469,29 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -4534,29 +4512,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -4577,17 +4555,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -4596,10 +4574,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
@@ -4620,17 +4598,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
